--- a/Stocks_financials/META.xlsx
+++ b/Stocks_financials/META.xlsx
@@ -308,13 +308,13 @@
     <t>Free Cash Flow per Share</t>
   </si>
   <si>
-    <t>Diluted Shares Outstanding  (M)</t>
-  </si>
-  <si>
-    <t>Basic Shares Outstanding  (M)</t>
-  </si>
-  <si>
-    <t>Total Shares Outstanding  (M)</t>
+    <t>Diluted Shares Outstanding  (M) (M)</t>
+  </si>
+  <si>
+    <t>Basic Shares Outstanding  (M) (M)</t>
+  </si>
+  <si>
+    <t>Total Shares Outstanding  (M) (M)</t>
   </si>
   <si>
     <t xml:space="preserve"> Asset Turnover Analysis</t>
@@ -488,13 +488,13 @@
     <t>Total Debt/Total Capital</t>
   </si>
   <si>
-    <t>All figures in millions of U.S. Dollar except per share items.</t>
+    <t>All figures in billions of U.S. Dollar except per share and labeled items.</t>
   </si>
   <si>
     <t>Meta Platforms Inc Class A (META)</t>
   </si>
   <si>
-    <t>$570.90</t>
+    <t>$593.10</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ff0e2bf0-a064-4138-8bcd-3653821e207b}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{da3d3a74-94b0-4a34-86cb-523bdab319e9}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
